--- a/menu.xlsx
+++ b/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2900,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="231">
   <si>
     <t>First level menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,6 +928,22 @@
   <si>
     <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在逃人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1294,16 +1310,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="64.25" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
@@ -1864,7 +1880,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>74</v>
@@ -2889,6 +2905,9 @@
       <c r="F79" s="2" t="s">
         <v>203</v>
       </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2898,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2968,6 +2987,11 @@
         <v>218</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2976,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3019,6 +3043,14 @@
         <v>221</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="244">
   <si>
     <t>First level menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -944,6 +944,57 @@
   <si>
     <t>在逃人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警员绩效考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[2]/div/div/div/div/div/div/a[4]/div[2]/img[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[3]/div[2]/div/ul/li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警员考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="2006"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警员自评及上级评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="2005"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[2]/div/div/div/div/div/div/a[4]/div[2]/img[2]</t>
+  </si>
+  <si>
+    <t>考核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="2004"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="save"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[2]/div/div[4]/div[1]/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1310,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2907,7 +2958,64 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="3"/>
+      <c r="A80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2919,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2991,6 +3099,12 @@
       <c r="B3" t="s">
         <v>229</v>
       </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3003,7 +3117,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3117,7 +3117,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
